--- a/templates/3ASY05_Imaging.xlsx
+++ b/templates/3ASY05_Imaging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY05_Imaging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EA1874-2F2F-417F-8ABB-A5DE94A76BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94D640-3927-40F8-B9CB-F8A69C6CB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY05_Imaging" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{764CF3E1-B993-49DB-9C5C-1661BE8D9836}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=e60ba840-a310-4ea9-8a1e-5f4c979473f3</t>
       </text>
     </comment>
@@ -578,7 +578,7 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000102</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1155,7 +1155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -1519,7 +1519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" style="11" customWidth="1"/>
@@ -1733,7 +1733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -2256,7 +2256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/3ASY05_Imaging.xlsx
+++ b/templates/3ASY05_Imaging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cremp\Documents\GitHub\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C94D640-3927-40F8-B9CB-F8A69C6CB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67696426-8CC1-4654-AF72-98A1AC7526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY05_Imaging" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,12 +42,21 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{764CF3E1-B993-49DB-9C5C-1661BE8D9836}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=e60ba840-a310-4ea9-8a1e-5f4c979473f3</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -57,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="162">
   <si>
     <t>Source Name</t>
   </si>
@@ -365,18 +372,6 @@
     <t>cv | s</t>
   </si>
   <si>
-    <t>This is only mandatory for submissions to the collection "BioImages".</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000185</t>
-  </si>
-  <si>
-    <t>Parameter [imaging assay]</t>
-  </si>
-  <si>
-    <t>OBI:0000185</t>
-  </si>
-  <si>
     <t>NFDI4PSO:1000121</t>
   </si>
   <si>
@@ -461,18 +456,9 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000120</t>
   </si>
   <si>
-    <t>Screen/Experiment_Imaging method</t>
-  </si>
-  <si>
     <t>Protocol_image acquisition_and_feature_extraction_Description</t>
   </si>
   <si>
-    <t>SCREEN/EXPERIMENT SECTION_Screen Imaging Method | Experiment Imaging Method</t>
-  </si>
-  <si>
-    <t>for screen:  e.g. fluorescence microscopy, spinning disk confocal microscopy; for experiment: fill in with the name of the imaging method used e.g. 3D-SIM, super resolution microscopy etc</t>
-  </si>
-  <si>
     <t>image acquistion and feature extraction protocol |HCS image acquistion and feature extraction protocol</t>
   </si>
   <si>
@@ -512,9 +498,6 @@
     <t>the path to the file</t>
   </si>
   <si>
-    <t>spinning disk confocal microscopy</t>
-  </si>
-  <si>
     <t>organelles</t>
   </si>
   <si>
@@ -542,9 +525,6 @@
     <t>OME-TIFF</t>
   </si>
   <si>
-    <t>fluorescence microscopy</t>
-  </si>
-  <si>
     <t>single cells</t>
   </si>
   <si>
@@ -560,25 +540,16 @@
     <t>TIFF</t>
   </si>
   <si>
-    <t>light microscopy</t>
-  </si>
-  <si>
     <t>colony</t>
   </si>
   <si>
     <t>user-specific</t>
   </si>
   <si>
-    <t>CHMO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0000087</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0000102</t>
-  </si>
-  <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>Data File+A13:A17 Name</t>
   </si>
 </sst>
 </file>
@@ -1158,13 +1129,13 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" customWidth="1"/>
     <col min="9" max="9" width="30.85546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -1339,170 +1310,143 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" t="s">
+        <v>150</v>
+      </c>
+      <c r="U2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="AJ2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL2" t="s">
         <v>152</v>
       </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" t="s">
-        <v>169</v>
-      </c>
-      <c r="V2" t="s">
-        <v>169</v>
-      </c>
-      <c r="W2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>160</v>
-      </c>
       <c r="AP2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AQ2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" t="s">
-        <v>169</v>
-      </c>
-      <c r="T3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" t="s">
-        <v>169</v>
-      </c>
-      <c r="V3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>157</v>
       </c>
       <c r="AP3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="AQ3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,9 +1673,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784E0D4F-11C2-4FD1-95D0-67870F1968D1}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1805,13 +1751,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>103</v>
@@ -1819,37 +1765,37 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
@@ -1865,21 +1811,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
@@ -1895,21 +1841,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
@@ -1925,21 +1871,21 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
@@ -1955,21 +1901,21 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
@@ -1985,21 +1931,21 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
@@ -2015,21 +1961,21 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
@@ -2045,21 +1991,21 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
@@ -2075,46 +2021,40 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2129,70 +2069,70 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>135</v>
-      </c>
+      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2207,43 +2147,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>133</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2252,9 +2168,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786DBB62-BEED-42CA-9CE2-4005A8044E1B}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2328,13 +2246,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>103</v>
@@ -2342,37 +2260,37 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>137</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
@@ -2382,27 +2300,27 @@
         <v>97</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
@@ -2412,27 +2330,27 @@
         <v>97</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
@@ -2442,27 +2360,27 @@
         <v>97</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
@@ -2472,87 +2390,87 @@
         <v>97</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="I8" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>141</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
@@ -2562,27 +2480,27 @@
         <v>97</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
@@ -2592,60 +2510,62 @@
         <v>97</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="I12" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>97</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>96</v>
@@ -2654,147 +2574,115 @@
         <v>97</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>97</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>100</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>139</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>133</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/3ASY05_Imaging.xlsx
+++ b/templates/3ASY05_Imaging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cremp\Documents\GitHub\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67696426-8CC1-4654-AF72-98A1AC7526B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74580EBA-EE2F-4C3B-9501-6560B76EC82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY05_Imaging" sheetId="1" r:id="rId1"/>
@@ -38,25 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={764CF3E1-B993-49DB-9C5C-1661BE8D9836}</author>
+    <author>tc={E6E71A1A-EC05-4048-AC80-F5D20E0E32CC}</author>
+    <author>tc={A9AE190C-EEFA-42D3-9D64-C393CAEE790C}</author>
+    <author>tc={F8C2A495-F446-4980-90C0-232C4B92674B}</author>
+    <author>tc={80E34628-7986-4C05-8491-94EDE97209D3}</author>
+    <author>tc={8E5959C0-E30B-4A8A-96C9-EE48C532C18F}</author>
+    <author>tc={3D3C88B7-7282-4217-AD57-AA111CF70AB9}</author>
+    <author>tc={41F9B4C8-C1D9-4A75-9F7E-FBFD0250A152}</author>
+    <author>tc={0269C758-6BF2-4C3A-A396-7FFD8C1334D2}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{764CF3E1-B993-49DB-9C5C-1661BE8D9836}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=e60ba840-a310-4ea9-8a1e-5f4c979473f3</t>
-        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{E6E71A1A-EC05-4048-AC80-F5D20E0E32CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{A9AE190C-EEFA-42D3-9D64-C393CAEE790C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{F8C2A495-F446-4980-90C0-232C4B92674B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{80E34628-7986-4C05-8491-94EDE97209D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{8E5959C0-E30B-4A8A-96C9-EE48C532C18F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{3D3C88B7-7282-4217-AD57-AA111CF70AB9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{41F9B4C8-C1D9-4A75-9F7E-FBFD0250A152}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{0269C758-6BF2-4C3A-A396-7FFD8C1334D2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -210,9 +273,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -270,18 +330,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>e60ba840-a310-4ea9-8a1e-5f4c979473f3</t>
   </si>
   <si>
@@ -550,13 +598,28 @@
   </si>
   <si>
     <t>Data File+A13:A17 Name</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +634,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -725,9 +794,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -740,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,6 +830,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{DD0A1BCA-0D1A-4A57-A11A-778B0E316943}" userId="855bec4539777958" providerId="Windows Live"/>
+  <person displayName="Kevin F" id="{C3236D66-AD6D-4079-B11D-415C52BC0239}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1086,6 +1156,30 @@
   <threadedComment ref="A1" dT="2021-12-13T16:55:44.70" personId="{DD0A1BCA-0D1A-4A57-A11A-778B0E316943}" id="{953D7F0D-2723-4185-B6A7-EA96396F2C0B}" parentId="{764CF3E1-B993-49DB-9C5C-1661BE8D9836}">
     <text>id=e60ba840-a310-4ea9-8a1e-5f4c979473f3</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{E6E71A1A-EC05-4048-AC80-F5D20E0E32CC}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{A9AE190C-EEFA-42D3-9D64-C393CAEE790C}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{F8C2A495-F446-4980-90C0-232C4B92674B}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{80E34628-7986-4C05-8491-94EDE97209D3}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{8E5959C0-E30B-4A8A-96C9-EE48C532C18F}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{3D3C88B7-7282-4217-AD57-AA111CF70AB9}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{41F9B4C8-C1D9-4A75-9F7E-FBFD0250A152}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{C3236D66-AD6D-4079-B11D-415C52BC0239}" id="{0269C758-6BF2-4C3A-A396-7FFD8C1334D2}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1124,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1310,143 +1404,143 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="R2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI2" t="s">
         <v>146</v>
       </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AJ2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL2" t="s">
         <v>147</v>
       </c>
-      <c r="L2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" t="s">
-        <v>150</v>
-      </c>
-      <c r="U2" t="s">
-        <v>159</v>
-      </c>
-      <c r="V2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>152</v>
-      </c>
       <c r="AP2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AQ2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AQ3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1459,24 +1553,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D26667D-8A82-460C-AF9D-703E927267EC}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="35.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>72</v>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,53 +1588,57 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1548,122 +1648,131 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1696,470 +1805,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="C16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2191,498 +2300,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="I12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
